--- a/biology/Médecine/Dose_absorbée/Dose_absorbée.xlsx
+++ b/biology/Médecine/Dose_absorbée/Dose_absorbée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dose_absorb%C3%A9e</t>
+          <t>Dose_absorbée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En radioprotection, la dose absorbée, ou, plus concisément, la dose, est l'énergie déposée par unité de masse par un rayonnement ionisant. On la rencontre également sous d'autres noms, notamment dose radiative ou dose radioactive en physique nucléaire.
 Son intérêt premier est de quantifier l'énergie déposée dans un tissu biologique pour prévoir les effets déterministes et effets stochastiques d'une irradiation : planning de soins des cancers en radiothérapie ou curiethérapie, prédiction des risques de maladie en cas d'exposition accidentelle ou volontaire (radiologie), définition de normes de sécurité dans l'industrie nucléaire, etc.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dose_absorb%C3%A9e</t>
+          <t>Dose_absorbée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Soit un faisceau de rayonnements ionisants irradiant un élément d'un matériau, de volume dV, de masse volumique ρ et de masse dm = ρ*dV.
 Soit dE l'énergie déposée dans cet élément par le faisceau, la dose absorbée D est alors :
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dose_absorb%C3%A9e</t>
+          <t>Dose_absorbée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Unité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unité de dose (et de kerma) du Système international est le gray (Gy) ; c'est une unité dérivée valant un joule par kilogramme : 1 Gy = 1 J/kg.
 Le gray a officiellement supplanté d'anciennes unités qui restent cependant d'usage courant, notamment aux États-Unis :
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dose_absorb%C3%A9e</t>
+          <t>Dose_absorbée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La dose absorbée est un concept fondamental pour la mesure des effets des rayonnements ionisants. Elle est utilisée dans tous les domaines où interviennent ces rayonnements (rayons X  et radioactivité), notamment : 
 physique nucléaire, industrie nucléaire, contrôle non destructif, électronique durcie ;
